--- a/data/users-export-2025-08-22.xlsx
+++ b/data/users-export-2025-08-22.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -70,7 +70,7 @@
     <t>rajaul2003@gmail.com</t>
   </si>
   <si>
-    <t>md rajaul</t>
+    <t>md</t>
   </si>
   <si>
     <t>rajaul</t>
@@ -88,6 +88,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>active</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t>2025-08-20T00:00:00+00:00</t>
   </si>
   <si>
-    <t>2025-08-21T15:41:08.147268+00:00</t>
+    <t>2025-08-22T16:13:18.437577+00:00</t>
   </si>
   <si>
     <t>b77c0897-0d31-403a-aef1-ed8262f62a4d</t>
@@ -115,10 +118,13 @@
     <t>https://lh3.googleusercontent.com/a/ACg8ocKS9N_Q-45063flQUG4lkvP69psyhMTORK-3vnBYd86oS7eZA=s96-c</t>
   </si>
   <si>
-    <t>2025-08-22T04:55:04.756587+00:00</t>
+    <t>2025-08-22T14:14:54.506243+00:00</t>
   </si>
   <si>
     <t>2025-08-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2025-08-22T15:48:55.904265+00:00</t>
   </si>
 </sst>
 </file>
@@ -593,20 +599,23 @@
       <c r="J2" t="s">
         <v>24</v>
       </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -614,19 +623,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -637,20 +646,17 @@
       <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>2</v>
